--- a/pred_ohlcv/54_21/2020-01-21 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 MXC ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2021689.794729499</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-5139424.022241004</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-6025361.760941004</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-4435501.098341004</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4442021.098341004</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4466015.481141004</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4999732.030641004</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5232725.419341004</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4499592.465741004</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4496223.855841004</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4498564.089141005</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4498564.089141005</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3044522.692020351</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 MXC ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-6025361.760941004</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-4435501.098341004</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4435501.098341004</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4442021.098341004</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4466015.481141004</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4999732.030641004</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-5359518.400141004</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-5368145.630141004</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5486227.157241004</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5339450.183641003</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5339450.183641003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5353701.563941004</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5421964.039241004</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5218460.183441004</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-5758109.037241003</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4499592.465741004</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4496223.855841004</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4498564.089141005</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3044522.692020351</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3260584.560620351</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3476646.429220351</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3934140.55782035</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-3461369.12522035</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
